--- a/backend/report.xlsx
+++ b/backend/report.xlsx
@@ -11,9 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>#</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+  <si>
+    <t>Опрос 1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>№</t>
   </si>
   <si>
     <t>Имя</t>
@@ -25,19 +31,25 @@
     <t>Ответ</t>
   </si>
   <si>
-    <t>Vladimir Ivanov</t>
-  </si>
-  <si>
-    <t>VladimirIvanov2002</t>
-  </si>
-  <si>
-    <t>Ежедневно</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Раз в неделю</t>
+    <t>Вопрос 1</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>Ответ 1</t>
+  </si>
+  <si>
+    <t>Вопрос 2</t>
+  </si>
+  <si>
+    <t>Ответ 2</t>
+  </si>
+  <si>
+    <t>Вопрос 3</t>
+  </si>
+  <si>
+    <t>упупу</t>
   </si>
 </sst>
 </file>
@@ -414,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -425,38 +437,122 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
